--- a/Qualidade de Produto de SW/Roteiro de testes.xlsx
+++ b/Qualidade de Produto de SW/Roteiro de testes.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="CT's" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Requistos" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="72">
   <si>
     <t>ID</t>
   </si>
@@ -129,66 +128,123 @@
     <t>RESULTADO ATUAL</t>
   </si>
   <si>
-    <t>Exportar</t>
-  </si>
-  <si>
     <t>N/T</t>
   </si>
   <si>
     <t>OBSERVAÇÃO</t>
   </si>
   <si>
-    <t>Relatórios</t>
-  </si>
-  <si>
-    <t>Imprimir</t>
-  </si>
-  <si>
     <t>TIPO</t>
   </si>
   <si>
     <t>Funcional</t>
   </si>
   <si>
-    <t>1. Sistema deve conter dados para exportar o relatório.</t>
-  </si>
-  <si>
-    <t>1. Sistema deve conter dados para imprimir o relatório.</t>
-  </si>
-  <si>
-    <t>1. Tela inicial do sistema
-2. Selecione o botão "Relatórios"
-3. Escolha um tipo de relatório.
-4. Selecione algum relatório para exportar.
-5. Selecione o botão "Gerar".
-6. Tela de Relatório &gt; Selecione "Exportar".</t>
-  </si>
-  <si>
-    <t>1. Tela inicial do sistema
-2. Selecione o botão "Relatórios"
-3. Escolha um tipo de relatório.
-4. Selecione algum relatório para exportar.
-5. Selecione o botão "Gerar".
-6. Tela de Relatório &gt; Selecione "Imprimir".</t>
-  </si>
-  <si>
-    <t>1. O sistema deve exportar o relatório para o formato XLX (Excel)</t>
-  </si>
-  <si>
-    <t>1. O sistema deve enviar uma comando para a impressora para imprimir o relatório.</t>
-  </si>
-  <si>
     <t>CRITICIDADE</t>
   </si>
   <si>
     <t>N/D</t>
+  </si>
+  <si>
+    <t>REQUISITOS</t>
+  </si>
+  <si>
+    <t>SRS-00001</t>
+  </si>
+  <si>
+    <t>SRS-00002</t>
+  </si>
+  <si>
+    <t>SRS-00003</t>
+  </si>
+  <si>
+    <t>SRS-00004</t>
+  </si>
+  <si>
+    <t>SRS-00005</t>
+  </si>
+  <si>
+    <t>SRS-00006</t>
+  </si>
+  <si>
+    <t>SRS-00007</t>
+  </si>
+  <si>
+    <t>SRS-00008</t>
+  </si>
+  <si>
+    <t>SRS-00009</t>
+  </si>
+  <si>
+    <t>SRS-00010</t>
+  </si>
+  <si>
+    <t>N\A</t>
+  </si>
+  <si>
+    <t>1. Agendamento Realizado.</t>
+  </si>
+  <si>
+    <t>O cancelamento do agendamento deve ser realizado.</t>
+  </si>
+  <si>
+    <t>1. Home.
+2. Selecione a botão" Agendamentos".
+3.  Tela Pesquisar Paciente &gt; Selecione a opção "AGENDA" na parte inferior da tela
+4.  Tela Pesquisar Agendamento &gt; Selecione a opção "CANCELAR" na parte inferior da tela.
+5. Selecione "SALVAR".</t>
+  </si>
+  <si>
+    <t>1. Home.
+2. Selecione a opção "CANCELAR" na parte inferior da tela.
+3.  Selecione "SALVAR".</t>
+  </si>
+  <si>
+    <t>Cancelar Agendamento</t>
+  </si>
+  <si>
+    <t>Editar Agendamento</t>
+  </si>
+  <si>
+    <t>Confirmação de Agendamento</t>
+  </si>
+  <si>
+    <t>Pesquisar Paciente</t>
+  </si>
+  <si>
+    <t>1. Dados para Cadastro do Paciente.</t>
+  </si>
+  <si>
+    <t>Novo Paciente</t>
+  </si>
+  <si>
+    <t>Buscar</t>
+  </si>
+  <si>
+    <t>1.  Paciente Cadastrado</t>
+  </si>
+  <si>
+    <t>Buscar Agendamento</t>
+  </si>
+  <si>
+    <t>Pesquisar Agendamento</t>
+  </si>
+  <si>
+    <t>Novo Agendamento</t>
+  </si>
+  <si>
+    <t>1. Paciente Cadastrado.
+2. Data e Hora não agendada previamente.</t>
+  </si>
+  <si>
+    <t>Editar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -354,6 +410,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -366,59 +428,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <font>
         <b/>
@@ -447,6 +467,27 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color auto="1"/>
       </font>
       <fill>
@@ -467,15 +508,174 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>230365</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19926</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781050" y="28575"/>
+          <a:ext cx="5545315" cy="5515851"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -513,7 +713,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -547,6 +747,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -581,9 +782,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -756,753 +958,895 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="31.140625" customWidth="1"/>
-    <col min="8" max="8" width="30" customWidth="1"/>
-    <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" customWidth="1"/>
+    <col min="9" max="9" width="30" customWidth="1"/>
+    <col min="10" max="10" width="21" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="F1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="8"/>
-    </row>
-    <row r="2" spans="1:11" ht="13.5" customHeight="1">
+      <c r="K1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10"/>
-    </row>
-    <row r="3" spans="1:11" ht="120">
+      <c r="J2" s="6"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="12"/>
+    </row>
+    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>46</v>
+      <c r="G3" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" ht="120">
+        <v>58</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="13"/>
+      <c r="L3" s="14"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="G4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="13"/>
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="I5" s="1"/>
+      <c r="J5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="I6" s="1"/>
+      <c r="J6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="I7" s="1"/>
+      <c r="J7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="I8" s="1"/>
+      <c r="J8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="13"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="I9" s="1"/>
+      <c r="J9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="I10" s="1"/>
+      <c r="J10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="I11" s="1"/>
+      <c r="J11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="13"/>
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="I12" s="1"/>
+      <c r="J12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="14"/>
+    </row>
+    <row r="13" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:11">
+        <v>52</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="C14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="I14" s="1"/>
+      <c r="J14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="I15" s="1"/>
+      <c r="J15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="I16" s="1"/>
+      <c r="J16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="I17" s="1"/>
+      <c r="J17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="13"/>
+      <c r="L17" s="14"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="I18" s="1"/>
+      <c r="J18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="13"/>
+      <c r="L18" s="14"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="I19" s="1"/>
+      <c r="J19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" s="13"/>
+      <c r="L19" s="14"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="I20" s="1"/>
+      <c r="J20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" s="13"/>
+      <c r="L20" s="14"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="I21" s="1"/>
+      <c r="J21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21" s="13"/>
+      <c r="L21" s="14"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J22" s="4"/>
-      <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="I22" s="1"/>
+      <c r="J22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K22" s="13"/>
+      <c r="L22" s="14"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="5"/>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="I23" s="1"/>
+      <c r="J23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23" s="13"/>
+      <c r="L23" s="14"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J24" s="4"/>
-      <c r="K24" s="5"/>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="I24" s="1"/>
+      <c r="J24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K24" s="13"/>
+      <c r="L24" s="14"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J25" s="4"/>
-      <c r="K25" s="5"/>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="I25" s="1"/>
+      <c r="J25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" s="13"/>
+      <c r="L25" s="14"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J26" s="4"/>
-      <c r="K26" s="5"/>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="I26" s="1"/>
+      <c r="J26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K26" s="13"/>
+      <c r="L26" s="14"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J27" s="4"/>
-      <c r="K27" s="5"/>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="I27" s="1"/>
+      <c r="J27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27" s="13"/>
+      <c r="L27" s="14"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J28" s="4"/>
-      <c r="K28" s="5"/>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="I28" s="1"/>
+      <c r="J28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K28" s="13"/>
+      <c r="L28" s="14"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J29" s="4"/>
-      <c r="K29" s="5"/>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="I29" s="1"/>
+      <c r="J29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29" s="13"/>
+      <c r="L29" s="14"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J30" s="4"/>
-      <c r="K30" s="5"/>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="I30" s="1"/>
+      <c r="J30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K30" s="13"/>
+      <c r="L30" s="14"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J31" s="4"/>
-      <c r="K31" s="5"/>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="I31" s="1"/>
+      <c r="J31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K31" s="13"/>
+      <c r="L31" s="14"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J32" s="4"/>
-      <c r="K32" s="5"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K32" s="13"/>
+      <c r="L32" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
   </mergeCells>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="FALHOU">
-      <formula>NOT(ISERROR(SEARCH("FALHOU",I3)))</formula>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="FALHOU">
+      <formula>NOT(ISERROR(SEARCH("FALHOU",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="PASSOU">
-      <formula>NOT(ISERROR(SEARCH("PASSOU",I3)))</formula>
+    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="PASSOU">
+      <formula>NOT(ISERROR(SEARCH("PASSOU",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I32">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="FALHOU">
-      <formula>NOT(ISERROR(SEARCH("FALHOU",I4)))</formula>
+  <conditionalFormatting sqref="J4:J12 J14:J32">
+    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="FALHOU">
+      <formula>NOT(ISERROR(SEARCH("FALHOU",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="PASSOU">
-      <formula>NOT(ISERROR(SEARCH("PASSOU",I4)))</formula>
+    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="PASSOU">
+      <formula>NOT(ISERROR(SEARCH("PASSOU",J4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>"ALTA"</formula>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
+      <formula>"MÉDIA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>"BAIXA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"MÉDIA"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B32">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"MÉDIA"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"BAIXA"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
       <formula>"ALTA"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C12 C14:C32">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+      <formula>"MÉDIA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>"BAIXA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+      <formula>"ALTA"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>"MÉDIA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"BAIXA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>"ALTA"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="FALHOU">
+      <formula>NOT(ISERROR(SEARCH("FALHOU",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="PASSOU">
+      <formula>NOT(ISERROR(SEARCH("PASSOU",J13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J32">
       <formula1>"PASSOU,FALHOU,N/T"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C32">
       <formula1>"ALTA,BAIXA,MÉDIA,N/D"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1512,25 +1856,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Qualidade de Produto de SW/Roteiro de testes.xlsx
+++ b/Qualidade de Produto de SW/Roteiro de testes.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CT's" sheetId="1" r:id="rId1"/>
     <sheet name="Requistos" sheetId="2" r:id="rId2"/>
+    <sheet name="Plan1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="74">
   <si>
     <t>ID</t>
   </si>
@@ -50,9 +51,6 @@
     <t>CT-0010</t>
   </si>
   <si>
-    <t>CT-0011</t>
-  </si>
-  <si>
     <t>CT-0012</t>
   </si>
   <si>
@@ -140,9 +138,6 @@
     <t>Funcional</t>
   </si>
   <si>
-    <t>CRITICIDADE</t>
-  </si>
-  <si>
     <t>N/D</t>
   </si>
   <si>
@@ -186,58 +181,70 @@
   </si>
   <si>
     <t>O cancelamento do agendamento deve ser realizado.</t>
+  </si>
+  <si>
+    <t>1. Home.
+2. Selecione a opção "CANCELAR" na parte inferior da tela.
+3.  Selecione "SALVAR".</t>
+  </si>
+  <si>
+    <t>Cancelar Agendamento</t>
+  </si>
+  <si>
+    <t>Editar Agendamento</t>
+  </si>
+  <si>
+    <t>Confirmação de Agendamento</t>
+  </si>
+  <si>
+    <t>Pesquisar Paciente</t>
+  </si>
+  <si>
+    <t>1. Dados para Cadastro do Paciente.</t>
+  </si>
+  <si>
+    <t>Novo Paciente</t>
+  </si>
+  <si>
+    <t>Buscar</t>
+  </si>
+  <si>
+    <t>1.  Paciente Cadastrado</t>
+  </si>
+  <si>
+    <t>Buscar Agendamento</t>
+  </si>
+  <si>
+    <t>Pesquisar Agendamento</t>
+  </si>
+  <si>
+    <t>Novo Agendamento</t>
+  </si>
+  <si>
+    <t>1. Paciente Cadastrado.
+2. Data e Hora não agendada previamente.</t>
+  </si>
+  <si>
+    <t>Editar</t>
+  </si>
+  <si>
+    <t>PRIORIDADE</t>
+  </si>
+  <si>
+    <t>ALTA</t>
+  </si>
+  <si>
+    <t>Funcional/ Positivo</t>
   </si>
   <si>
     <t>1. Home.
 2. Selecione a botão" Agendamentos".
 3.  Tela Pesquisar Paciente &gt; Selecione a opção "AGENDA" na parte inferior da tela
-4.  Tela Pesquisar Agendamento &gt; Selecione a opção "CANCELAR" na parte inferior da tela.
+4.  Tela Pesquisar Agendamento &gt; Selecione opção "CANCELAR" e algum paciente da lista de agendamento  na parte inferior da tela.
 5. Selecione "SALVAR".</t>
   </si>
   <si>
-    <t>1. Home.
-2. Selecione a opção "CANCELAR" na parte inferior da tela.
-3.  Selecione "SALVAR".</t>
-  </si>
-  <si>
-    <t>Cancelar Agendamento</t>
-  </si>
-  <si>
-    <t>Editar Agendamento</t>
-  </si>
-  <si>
-    <t>Confirmação de Agendamento</t>
-  </si>
-  <si>
-    <t>Pesquisar Paciente</t>
-  </si>
-  <si>
-    <t>1. Dados para Cadastro do Paciente.</t>
-  </si>
-  <si>
-    <t>Novo Paciente</t>
-  </si>
-  <si>
-    <t>Buscar</t>
-  </si>
-  <si>
-    <t>1.  Paciente Cadastrado</t>
-  </si>
-  <si>
-    <t>Buscar Agendamento</t>
-  </si>
-  <si>
-    <t>Pesquisar Agendamento</t>
-  </si>
-  <si>
-    <t>Novo Agendamento</t>
-  </si>
-  <si>
-    <t>1. Paciente Cadastrado.
-2. Data e Hora não agendada previamente.</t>
-  </si>
-  <si>
-    <t>Editar</t>
+    <t>PASSOU</t>
   </si>
 </sst>
 </file>
@@ -407,13 +414,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -428,17 +435,107 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -961,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L13" sqref="A13:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,7 +1067,7 @@
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" bestFit="1" customWidth="1"/>
@@ -981,52 +1078,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="K1" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
       <c r="K2" s="11"/>
       <c r="L2" s="12"/>
     </row>
@@ -1035,254 +1132,254 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="J3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="1"/>
       <c r="J4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1291,20 +1388,20 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1313,82 +1410,82 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="14"/>
-    </row>
-    <row r="13" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="J13" s="3" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="K14" s="6"/>
+      <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1397,18 +1494,18 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" s="13"/>
-      <c r="L15" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="7"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1417,18 +1514,18 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16" s="13"/>
-      <c r="L16" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="7"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1437,18 +1534,18 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17" s="13"/>
-      <c r="L17" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="K17" s="6"/>
+      <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1457,18 +1554,18 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18" s="13"/>
-      <c r="L18" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="K18" s="6"/>
+      <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1477,18 +1574,18 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K19" s="13"/>
-      <c r="L19" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="K19" s="6"/>
+      <c r="L19" s="7"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1497,18 +1594,18 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K20" s="13"/>
-      <c r="L20" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="K20" s="6"/>
+      <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1517,18 +1614,18 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K21" s="13"/>
-      <c r="L21" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="7"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1537,18 +1634,18 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K22" s="13"/>
-      <c r="L22" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="K22" s="6"/>
+      <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1557,18 +1654,18 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="K23" s="6"/>
+      <c r="L23" s="7"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1577,18 +1674,18 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K24" s="13"/>
-      <c r="L24" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="K24" s="6"/>
+      <c r="L24" s="7"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1597,18 +1694,18 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K25" s="13"/>
-      <c r="L25" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="K25" s="6"/>
+      <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1617,18 +1714,18 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K26" s="13"/>
-      <c r="L26" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="K26" s="6"/>
+      <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1637,18 +1734,18 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K27" s="13"/>
-      <c r="L27" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="K27" s="6"/>
+      <c r="L27" s="7"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1657,18 +1754,18 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K28" s="13"/>
-      <c r="L28" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="K28" s="6"/>
+      <c r="L28" s="7"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1677,18 +1774,18 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K29" s="13"/>
-      <c r="L29" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="K29" s="6"/>
+      <c r="L29" s="7"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1697,18 +1794,18 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K30" s="13"/>
-      <c r="L30" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="K30" s="6"/>
+      <c r="L30" s="7"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1717,18 +1814,18 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K31" s="13"/>
-      <c r="L31" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="K31" s="6"/>
+      <c r="L31" s="7"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1737,25 +1834,27 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K32" s="13"/>
-      <c r="L32" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="K32" s="6"/>
+      <c r="L32" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K4:L4"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
@@ -1770,75 +1869,73 @@
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="K19:L19"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
   </mergeCells>
   <conditionalFormatting sqref="J3">
-    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="FALHOU">
+    <cfRule type="containsText" dxfId="29" priority="19" operator="containsText" text="FALHOU">
       <formula>NOT(ISERROR(SEARCH("FALHOU",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="PASSOU">
+    <cfRule type="containsText" dxfId="28" priority="20" operator="containsText" text="PASSOU">
       <formula>NOT(ISERROR(SEARCH("PASSOU",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J12 J14:J32">
-    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="FALHOU">
+    <cfRule type="containsText" dxfId="27" priority="17" operator="containsText" text="FALHOU">
       <formula>NOT(ISERROR(SEARCH("FALHOU",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="PASSOU">
+    <cfRule type="containsText" dxfId="26" priority="18" operator="containsText" text="PASSOU">
       <formula>NOT(ISERROR(SEARCH("PASSOU",J4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="14" operator="equal">
       <formula>"MÉDIA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="15" operator="equal">
       <formula>"BAIXA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
       <formula>"ALTA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C12 C14:C32">
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
       <formula>"MÉDIA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
       <formula>"BAIXA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
       <formula>"ALTA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>"MÉDIA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>"BAIXA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
       <formula>"ALTA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="FALHOU">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="FALHOU">
       <formula>NOT(ISERROR(SEARCH("FALHOU",J13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="PASSOU">
+    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="PASSOU">
       <formula>NOT(ISERROR(SEARCH("PASSOU",J13)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1868,4 +1965,208 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="12"/>
+    </row>
+    <row r="3" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:L7"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:L2"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+      <formula>"MÉDIA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+      <formula>"BAIXA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>"ALTA"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="FALHOU">
+      <formula>NOT(ISERROR(SEARCH("FALHOU",J3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="PASSOU">
+      <formula>NOT(ISERROR(SEARCH("PASSOU",J3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
+      <formula1>"ALTA,BAIXA,MÉDIA,N/D"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3">
+      <formula1>"PASSOU,FALHOU,N/T"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>